--- a/Extraccion/outputs/Registro_Proyectos_Actividades_ESTRATEGIAS.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_ESTRATEGIAS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nombre de la Estrategia</t>
+          <t>Nombre_Proyecto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -505,26 +505,6 @@
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>PTA_EST_2024_2027</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>JORNADA ÚNICA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>JORNADA_UNICA_EST_2024_2027</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
         <is>
           <t>DOVE_EST_2025</t>
         </is>
@@ -541,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,57 +542,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Ejecutado</t>
+          <t>¿A qué actor va dirigida?</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Componente PAM</t>
+          <t>Número de Beneficiarios</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>¿A qué actor va dirigida?</t>
+          <t>Entrega Dotación (SI / NO)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Número de Beneficiarios</t>
+          <t>Descripción de la Dotación Entregada</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Entrega Dotación (SI / NO)</t>
+          <t>Evidencia de la Actividad</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Descripción de la Dotación Entregada</t>
+          <t>Evidencia_URL</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Evidencia de la Actividad</t>
+          <t>Observaciones Generales</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Evidencia_URL</t>
+          <t>Hoja</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Observaciones Generales</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Hoja</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre de la Estrategia</t>
+          <t>Nombre_Proyecto</t>
         </is>
       </c>
     </row>
@@ -650,25 +620,19 @@
 -Documentos curriculares de: Ciencias Naturales, lenguaje, matemáticas y educación física. Cada área con sus orientaciones pedagógicas y didácticas. matriz y secuencias didácticas.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EVIDENCIAS</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ATEM_EST_2025</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>ATEM_EST_2025</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>ALIANZA PARA LA TRANSFORMACIÓN DELA EDUCACIÓN MEDIA - ATEM</t>
         </is>
@@ -709,19 +673,17 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ATEM_EST_2025</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>ATEM_EST_2025</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>ALIANZA PARA LA TRANSFORMACIÓN DELA EDUCACIÓN MEDIA - ATEM</t>
         </is>
@@ -738,19 +700,17 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ATEM_EST_2025</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>ATEM_EST_2025</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>ALIANZA PARA LA TRANSFORMACIÓN DELA EDUCACIÓN MEDIA - ATEM</t>
         </is>
@@ -767,19 +727,17 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ATEM_EST_2025</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>ATEM_EST_2025</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>ALIANZA PARA LA TRANSFORMACIÓN DELA EDUCACIÓN MEDIA - ATEM</t>
         </is>
@@ -794,25 +752,19 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EVIDENCIAS</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2024</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -825,19 +777,17 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2024</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -850,19 +800,17 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2024</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -875,19 +823,17 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2024</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -900,19 +846,17 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2024</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -925,19 +869,17 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2024</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -948,25 +890,19 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>EVIDENCIAS</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2025</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -979,19 +915,17 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2025</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1004,19 +938,17 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2025</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1029,19 +961,17 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2025</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1054,19 +984,17 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2025</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1079,19 +1007,17 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>RECUP_APREND_EST_2025</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1102,25 +1028,19 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>EVIDENCIAS</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2024</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1133,19 +1053,17 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2024</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1158,19 +1076,17 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2024</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1183,19 +1099,17 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2024</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1208,19 +1122,17 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2024</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1233,19 +1145,17 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2024</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1256,25 +1166,19 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>EVIDENCIAS</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2025</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1287,19 +1191,17 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2025</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1312,19 +1214,17 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2025</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1337,19 +1237,17 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2025</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1362,19 +1260,17 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2025</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1387,19 +1283,17 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>TODOS_LEER_EST_2025</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1432,25 +1326,19 @@
 2147 Licencias Office</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>EVIDENCIAS</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>CELSIA_EST_2024</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>CELSIA_EST_2024</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
         <is>
           <t>Dotación de computadores y formación de docentes en herramientas TIC para la innovación educativa en el municipio de Pradera, Valle del Cauca</t>
         </is>
@@ -1481,446 +1369,67 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>CELSIA_EST_2024</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>CELSIA_EST_2024</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
           <t>Dotación de computadores y formación de docentes en herramientas TIC para la innovación educativa en el municipio de Pradera, Valle del Cauca</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2026</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2027</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>PTA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>DOVE_EST_2025</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Asiganación de tutor</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Docentes</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>140</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>PTA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Capacitación a Docentes</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Docentes</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>XX</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>PTA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>3</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>PTA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>PTA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>5</v>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>PTA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2026</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2027</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>JORNADA_UNICA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>JORNADA ÚNICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Seguimiento a la implementación de la Jornada Única</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>JORNADA_UNICA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>JORNADA ÚNICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Asignación de Horas Extras</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>JORNADA_UNICA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>JORNADA ÚNICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PAE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>JORNADA_UNICA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>JORNADA ÚNICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>4</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Infraestructura</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>JORNADA_UNICA_EST_2024_2027</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>JORNADA ÚNICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>EVIDENCIAS</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>DOVE_EST_2025</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>DOVE_EST_2025</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Extraccion/outputs/Registro_Proyectos_Actividades_ESTRATEGIAS.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_ESTRATEGIAS.xlsx
@@ -521,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,8 +602,8 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>128 Docentes Norte
-90 Docentes Centro Sur</t>
+          <t xml:space="preserve">218 Docentes 
+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Visitas de acompañamiento situado </t>
+          <t xml:space="preserve">Visitas de acompañamiento situado ciclo 1 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -654,23 +654,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17 EE Norte del Valle
-9 EE Centro Sur</t>
+          <t xml:space="preserve">26 equipos gestores de la media  </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Conformación de equipo gestor 
-- Análisis de pruebas saber 
-- organización de ruta de acompañamiento
-- Análisis de dispositivo de acogida </t>
-        </is>
-      </c>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -693,10 +685,26 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encuentro de Formación Ciclo 2 año 1 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Docentes y Diectivos Docentes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87 Docentes </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -720,10 +728,26 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Visitas de acompañamiento situado ciclo 2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Establecimientos Educativos</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26 equipos gestores de la media</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -745,12 +769,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encuentro de Formación Ciclo 3 año 1 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Docentes y Diectivos Docentes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">134 Docentes </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -761,19 +801,39 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>RECUP_APREND_EST_2024</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>ATEM_EST_2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ALIANZA PARA LA TRANSFORMACIÓN DELA EDUCACIÓN MEDIA - ATEM</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Visitas de acompañamiento situado ciclo 3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Establecimientos Educativos</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26 equipos gestores de la media</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -784,14 +844,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>RECUP_APREND_EST_2024</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>ATEM_EST_2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ALIANZA PARA LA TRANSFORMACIÓN DELA EDUCACIÓN MEDIA - ATEM</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -814,7 +878,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -837,7 +901,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -860,7 +924,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -883,7 +947,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -899,14 +963,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>RECUP_APREND_EST_2025</t>
+          <t>RECUP_APREND_EST_2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -922,14 +986,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>RECUP_APREND_EST_2025</t>
+          <t>RECUP_APREND_EST_2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -952,7 +1016,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -975,7 +1039,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -998,7 +1062,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -1021,7 +1085,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -1037,14 +1101,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>TODOS_LEER_EST_2024</t>
+          <t>RECUP_APREND_EST_2025</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -1060,14 +1124,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>TODOS_LEER_EST_2024</t>
+          <t>RECUP_APREND_EST_2025</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -1090,7 +1154,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -1113,7 +1177,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -1136,7 +1200,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -1159,7 +1223,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -1175,14 +1239,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>TODOS_LEER_EST_2025</t>
+          <t>TODOS_LEER_EST_2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -1198,14 +1262,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>TODOS_LEER_EST_2025</t>
+          <t>TODOS_LEER_EST_2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -1228,7 +1292,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -1251,7 +1315,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -1274,7 +1338,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -1297,27 +1361,73 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>TODOS_LEER_EST_2025</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>TODOS_LEER_EST_2025</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>1</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Dotación de computadores</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Establecimientos Educativos</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D32" t="n">
         <v>6</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2147 Computadores
 37 Acces Point
@@ -1326,74 +1436,6 @@
 2147 Licencias Office</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>CELSIA_EST_2024</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Dotación de computadores y formación de docentes en herramientas TIC para la innovación educativa en el municipio de Pradera, Valle del Cauca</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Formación de docentes en herramientas TIC para la innovación educativa en el municipio de Pradera</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Docentes</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Sin observaciones</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>CELSIA_EST_2024</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Dotación de computadores y formación de docentes en herramientas TIC para la innovación educativa en el municipio de Pradera, Valle del Cauca</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -1403,19 +1445,37 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DOVE_EST_2025</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>CELSIA_EST_2024</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Dotación de computadores y formación de docentes en herramientas TIC para la innovación educativa en el municipio de Pradera, Valle del Cauca</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Formación de docentes en herramientas TIC para la innovación educativa en el municipio de Pradera</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Docentes</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1426,10 +1486,60 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>CELSIA_EST_2024</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Dotación de computadores y formación de docentes en herramientas TIC para la innovación educativa en el municipio de Pradera, Valle del Cauca</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>DOVE_EST_2025</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Sin observaciones</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>DOVE_EST_2025</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
